--- a/Assets/StreamingAssets/StoryScript15.xlsx
+++ b/Assets/StreamingAssets/StoryScript15.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D198881-E9DB-FE4C-8275-8DDA66A5487A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2A2AC6-2E07-DE4E-BFFE-2F4A04235EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="255">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -689,10 +689,6 @@
   </si>
   <si>
     <t xml:space="preserve"> &lt;color=#00CC00&gt;(The entire box was covered in dust — except the latch, which had clearly been wiped clean.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Yao opened the box, revealing a damaged garment covered in blade marks.)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -865,10 +861,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(An old abacus and some of the manor’s account books were found in Butler He’s room.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> &lt;color=#00CC00&gt;(Chen’s room contained only some of her usual weapons, but the missing sword was nowhere to be found.)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -921,10 +913,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>You’re lying. Butler He noticed this morning that the Lord’s jade pendant was missing while preparing his body.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Alright, fine. Yesterday afternoon, before the banquet, I ran into the Lord in the back garden. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -945,10 +933,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">This powder is extremely potent. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Even a small inhalation is enough to impair movement. We’d better seal it back up quickly.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1041,10 +1025,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;color=#00CC00&gt;(Ming’s room contained only various brushes, ink, paper, and inkstones.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;color=#00CC00&gt;(He had also gathered a number of poetry collections from different places.)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1055,6 +1035,21 @@
   <si>
     <t>History15</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(An old &lt;color=#FFCC000&gt;abacus&lt;/color&gt; and some of the manor’s account books were found in Butler He’s room.)&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Yao opened the box, revealing a damaged &lt;color=#FFCC000&gt;garment&lt;/color&gt; covered in blade marks.)&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#00CC00&gt;(Ming’s room contained only various &lt;color=#FFCC000&gt;brushes, ink, paper, and inkstones&lt;/color&gt;.)&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>You’re lying. Butler He noticed this morning that the Lord’s &lt;color=#FFCC000&gt;jade pendant&lt;/color&gt; was missing while preparing his body.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This &lt;color=#FFCC000&gt;powder&lt;/color&gt; is extremely potent. </t>
   </si>
 </sst>
 </file>
@@ -1133,7 +1128,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1156,9 +1151,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1497,8 +1489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EEC272-F350-D34D-A243-3179172F76FB}">
   <dimension ref="A1:P176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B121" workbookViewId="0">
-      <selection activeCell="L135" sqref="L135"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1599,7 +1591,7 @@
         <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -1806,7 +1798,7 @@
     </row>
     <row r="13" spans="1:16" ht="51">
       <c r="B13" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
@@ -1974,7 +1966,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C22" t="s">
         <v>98</v>
@@ -1994,7 +1986,7 @@
         <v>27</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C23" t="s">
         <v>104</v>
@@ -2014,7 +2006,7 @@
         <v>27</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C24" t="s">
         <v>19</v>
@@ -2034,7 +2026,7 @@
         <v>27</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C25" t="s">
         <v>19</v>
@@ -2067,7 +2059,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C27" t="s">
         <v>104</v>
@@ -2189,7 +2181,7 @@
         <v>500</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="34">
@@ -2197,7 +2189,7 @@
         <v>22</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C34" t="s">
         <v>100</v>
@@ -2290,7 +2282,7 @@
     </row>
     <row r="39" spans="1:14" ht="34">
       <c r="B39" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D39" t="s">
         <v>12</v>
@@ -2299,9 +2291,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="34">
+    <row r="40" spans="1:14" ht="51">
       <c r="B40" s="1" t="s">
-        <v>207</v>
+        <v>250</v>
       </c>
       <c r="D40" t="s">
         <v>12</v>
@@ -2310,7 +2302,7 @@
         <v>87</v>
       </c>
       <c r="M40" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="N40" s="7" t="s">
         <v>18</v>
@@ -2318,7 +2310,7 @@
     </row>
     <row r="41" spans="1:14" ht="51">
       <c r="B41" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D41" t="s">
         <v>12</v>
@@ -2331,7 +2323,7 @@
     </row>
     <row r="42" spans="1:14" ht="17">
       <c r="B42" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
@@ -2347,7 +2339,7 @@
         <v>24</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C43" t="s">
         <v>93</v>
@@ -2482,9 +2474,9 @@
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" spans="1:14" ht="34">
+    <row r="51" spans="1:14" ht="51">
       <c r="B51" s="1" t="s">
-        <v>164</v>
+        <v>251</v>
       </c>
       <c r="D51" t="s">
         <v>12</v>
@@ -2496,7 +2488,7 @@
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
       <c r="M51" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="N51" s="7" t="s">
         <v>18</v>
@@ -2507,7 +2499,7 @@
         <v>22</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C52" t="s">
         <v>19</v>
@@ -2529,7 +2521,7 @@
         <v>28</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C53" t="s">
         <v>109</v>
@@ -2551,7 +2543,7 @@
         <v>28</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C54" t="s">
         <v>109</v>
@@ -2593,7 +2585,7 @@
         <v>500</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="17">
@@ -2680,7 +2672,7 @@
         <v>22</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C60" t="s">
         <v>19</v>
@@ -2694,7 +2686,7 @@
     </row>
     <row r="61" spans="1:14" ht="34">
       <c r="B61" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D61" t="s">
         <v>12</v>
@@ -2705,7 +2697,7 @@
     </row>
     <row r="62" spans="1:14" ht="51">
       <c r="B62" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D62" t="s">
         <v>12</v>
@@ -2716,7 +2708,7 @@
     </row>
     <row r="63" spans="1:14" ht="51">
       <c r="B63" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D63" t="s">
         <v>12</v>
@@ -2725,9 +2717,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="34">
+    <row r="64" spans="1:14" ht="51">
       <c r="B64" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D64" t="s">
         <v>12</v>
@@ -2736,7 +2728,7 @@
         <v>87</v>
       </c>
       <c r="M64" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="N64" s="7" t="s">
         <v>18</v>
@@ -2744,7 +2736,7 @@
     </row>
     <row r="65" spans="1:14" ht="34">
       <c r="B65" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D65" t="s">
         <v>12</v>
@@ -2778,7 +2770,7 @@
     </row>
     <row r="67" spans="1:14" ht="34">
       <c r="B67" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D67" t="s">
         <v>12</v>
@@ -2786,8 +2778,6 @@
       <c r="E67" t="s">
         <v>89</v>
       </c>
-      <c r="M67" s="8"/>
-      <c r="N67" s="8"/>
     </row>
     <row r="68" spans="1:14" ht="17">
       <c r="A68" t="s">
@@ -2820,7 +2810,7 @@
         <v>22</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C69" t="s">
         <v>19</v>
@@ -2857,7 +2847,7 @@
     </row>
     <row r="71" spans="1:14" ht="51">
       <c r="B71" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D71" t="s">
         <v>12</v>
@@ -2871,7 +2861,7 @@
     </row>
     <row r="72" spans="1:14" ht="34">
       <c r="B72" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D72" t="s">
         <v>12</v>
@@ -2885,7 +2875,7 @@
     </row>
     <row r="73" spans="1:14" ht="34">
       <c r="B73" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D73" t="s">
         <v>12</v>
@@ -2902,7 +2892,7 @@
         <v>29</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C74" t="s">
         <v>110</v>
@@ -2922,7 +2912,7 @@
         <v>29</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C75" t="s">
         <v>110</v>
@@ -2982,7 +2972,7 @@
         <v>29</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C78" t="s">
         <v>111</v>
@@ -3021,7 +3011,7 @@
     </row>
     <row r="80" spans="1:14" ht="51">
       <c r="B80" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D80" t="s">
         <v>12</v>
@@ -3032,7 +3022,7 @@
     </row>
     <row r="81" spans="1:12" ht="17">
       <c r="B81" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D81" t="s">
         <v>12</v>
@@ -3094,7 +3084,7 @@
     </row>
     <row r="85" spans="1:12" ht="34">
       <c r="B85" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D85" t="s">
         <v>12</v>
@@ -3154,7 +3144,7 @@
         <v>22</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C88" t="s">
         <v>100</v>
@@ -3174,7 +3164,7 @@
         <v>22</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C89" t="s">
         <v>100</v>
@@ -3234,7 +3224,7 @@
         <v>22</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C92" t="s">
         <v>19</v>
@@ -3337,7 +3327,7 @@
     </row>
     <row r="97" spans="1:14" ht="51">
       <c r="B97" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D97" t="s">
         <v>12</v>
@@ -3452,7 +3442,7 @@
         <v>500</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="17">
@@ -3497,12 +3487,12 @@
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
     </row>
-    <row r="105" spans="1:14" ht="34">
+    <row r="105" spans="1:14" ht="51">
       <c r="A105" t="s">
         <v>22</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="C105" t="s">
         <v>19</v>
@@ -3514,7 +3504,7 @@
         <v>123</v>
       </c>
       <c r="M105" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="N105" s="7" t="s">
         <v>18</v>
@@ -3525,7 +3515,7 @@
         <v>30</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C106" t="s">
         <v>115</v>
@@ -3544,7 +3534,7 @@
         <v>30</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C107" t="s">
         <v>115</v>
@@ -3691,7 +3681,7 @@
         <v>22</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C114" t="s">
         <v>19</v>
@@ -3711,7 +3701,7 @@
         <v>30</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C115" t="s">
         <v>113</v>
@@ -3730,7 +3720,7 @@
     </row>
     <row r="116" spans="1:12" ht="34">
       <c r="B116" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D116" t="s">
         <v>12</v>
@@ -3825,7 +3815,7 @@
         <v>22</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C120" t="s">
         <v>19</v>
@@ -3848,7 +3838,7 @@
         <v>22</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C121" t="s">
         <v>19</v>
@@ -3871,7 +3861,7 @@
         <v>24</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C122" t="s">
         <v>94</v>
@@ -3894,7 +3884,7 @@
         <v>24</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C123" t="s">
         <v>94</v>
@@ -3975,7 +3965,7 @@
     </row>
     <row r="127" spans="1:12" ht="34">
       <c r="B127" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D127" t="s">
         <v>12</v>
@@ -3998,7 +3988,7 @@
         <v>22</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C128" t="s">
         <v>19</v>
@@ -4015,7 +4005,7 @@
     </row>
     <row r="129" spans="1:14" ht="34">
       <c r="B129" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D129" t="s">
         <v>12</v>
@@ -4031,19 +4021,13 @@
     </row>
     <row r="130" spans="1:14" ht="17">
       <c r="B130" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D130" t="s">
         <v>12</v>
       </c>
       <c r="E130" t="s">
         <v>123</v>
-      </c>
-      <c r="M130" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="N130" s="7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="131" spans="1:14" ht="17">
@@ -4062,15 +4046,13 @@
       <c r="E131" t="s">
         <v>123</v>
       </c>
-      <c r="M131" s="7"/>
-      <c r="N131" s="7"/>
     </row>
     <row r="132" spans="1:14" ht="17">
       <c r="A132" t="s">
         <v>22</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="C132" t="s">
         <v>124</v>
@@ -4081,15 +4063,19 @@
       <c r="E132" t="s">
         <v>123</v>
       </c>
-      <c r="M132" s="7"/>
-      <c r="N132" s="7"/>
+      <c r="M132" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="N132" s="7" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="133" spans="1:14" ht="34">
       <c r="A133" t="s">
         <v>22</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C133" t="s">
         <v>124</v>
@@ -4101,13 +4087,11 @@
         <v>123</v>
       </c>
       <c r="M133" s="7"/>
-      <c r="N133" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="N133" s="7"/>
     </row>
     <row r="134" spans="1:14" ht="51">
       <c r="B134" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D134" t="s">
         <v>12</v>
@@ -4124,10 +4108,14 @@
       <c r="I134" s="3" t="s">
         <v>130</v>
       </c>
+      <c r="M134" s="7"/>
+      <c r="N134" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="135" spans="1:14" ht="51">
       <c r="B135" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D135" t="s">
         <v>12</v>
@@ -4141,7 +4129,7 @@
     </row>
     <row r="136" spans="1:14" ht="34">
       <c r="B136" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D136" t="s">
         <v>12</v>
@@ -4155,7 +4143,7 @@
     </row>
     <row r="137" spans="1:14" ht="17">
       <c r="B137" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D137" t="s">
         <v>12</v>
@@ -4169,7 +4157,7 @@
     </row>
     <row r="138" spans="1:14" ht="34">
       <c r="B138" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D138" t="s">
         <v>12</v>
@@ -4183,7 +4171,7 @@
     </row>
     <row r="139" spans="1:14" ht="34">
       <c r="B139" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D139" t="s">
         <v>12</v>
@@ -4226,7 +4214,7 @@
         <v>22</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C141" t="s">
         <v>19</v>
@@ -4265,7 +4253,7 @@
     </row>
     <row r="143" spans="1:14" ht="34">
       <c r="B143" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D143" t="s">
         <v>12</v>
@@ -4279,7 +4267,7 @@
     </row>
     <row r="144" spans="1:14" ht="34">
       <c r="B144" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D144" t="s">
         <v>12</v>
@@ -4290,7 +4278,7 @@
     </row>
     <row r="145" spans="1:9" ht="34">
       <c r="B145" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D145" t="s">
         <v>12</v>
@@ -4304,7 +4292,7 @@
         <v>22</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C146" t="s">
         <v>23</v>
@@ -4330,7 +4318,7 @@
         <v>122</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C147" t="s">
         <v>126</v>
@@ -4347,7 +4335,7 @@
     </row>
     <row r="148" spans="1:9" ht="51">
       <c r="B148" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D148" t="s">
         <v>12</v>
@@ -4364,7 +4352,7 @@
         <v>22</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C149" t="s">
         <v>19</v>
@@ -4384,7 +4372,7 @@
         <v>22</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C150" t="s">
         <v>100</v>
@@ -4424,7 +4412,7 @@
         <v>22</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C152" t="s">
         <v>23</v>
@@ -4444,7 +4432,7 @@
         <v>22</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C153" t="s">
         <v>23</v>
@@ -4464,7 +4452,7 @@
         <v>22</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C154" t="s">
         <v>100</v>
@@ -4555,7 +4543,9 @@
       <c r="E158" t="s">
         <v>127</v>
       </c>
-      <c r="G158" s="3"/>
+      <c r="G158" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="H158" s="3"/>
       <c r="I158" s="3"/>
     </row>
@@ -4564,7 +4554,7 @@
         <v>22</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C159" t="s">
         <v>98</v>
@@ -4573,18 +4563,15 @@
         <v>12</v>
       </c>
       <c r="E159" t="s">
-        <v>244</v>
-      </c>
-      <c r="G159" s="3"/>
-      <c r="H159" s="3"/>
-      <c r="I159" s="3"/>
+        <v>240</v>
+      </c>
     </row>
     <row r="160" spans="1:9" ht="34">
       <c r="A160" t="s">
         <v>22</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C160" t="s">
         <v>98</v>
@@ -4593,15 +4580,12 @@
         <v>12</v>
       </c>
       <c r="E160" t="s">
-        <v>245</v>
-      </c>
-      <c r="G160" s="3"/>
-      <c r="H160" s="3"/>
-      <c r="I160" s="3"/>
+        <v>241</v>
+      </c>
     </row>
     <row r="161" spans="1:9" ht="34">
       <c r="B161" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D161" t="s">
         <v>12</v>
@@ -4609,16 +4593,13 @@
       <c r="E161" t="s">
         <v>127</v>
       </c>
-      <c r="G161" s="3"/>
-      <c r="H161" s="3"/>
-      <c r="I161" s="3"/>
     </row>
     <row r="162" spans="1:9" ht="34">
       <c r="A162" t="s">
         <v>22</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C162" t="s">
         <v>98</v>
@@ -4644,7 +4625,7 @@
         <v>22</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C163" t="s">
         <v>98</v>
@@ -4664,7 +4645,7 @@
         <v>22</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C164" t="s">
         <v>98</v>
@@ -4684,7 +4665,7 @@
         <v>22</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C165" t="s">
         <v>98</v>
@@ -4701,7 +4682,7 @@
     </row>
     <row r="166" spans="1:9" ht="51">
       <c r="B166" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D166" t="s">
         <v>12</v>
@@ -4758,7 +4739,7 @@
         <v>22</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C169" t="s">
         <v>19</v>

--- a/Assets/StreamingAssets/StoryScript15.xlsx
+++ b/Assets/StreamingAssets/StoryScript15.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2A2AC6-2E07-DE4E-BFFE-2F4A04235EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFACD0D3-E8D9-BA4A-8D66-7AA14BB2A3CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="261">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1037,19 +1037,48 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(An old &lt;color=#FFCC000&gt;abacus&lt;/color&gt; and some of the manor’s account books were found in Butler He’s room.)&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Yao opened the box, revealing a damaged &lt;color=#FFCC000&gt;garment&lt;/color&gt; covered in blade marks.)&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>&lt;color=#00CC00&gt;(Ming’s room contained only various &lt;color=#FFCC000&gt;brushes, ink, paper, and inkstones&lt;/color&gt;.)&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>You’re lying. Butler He noticed this morning that the Lord’s &lt;color=#FFCC000&gt;jade pendant&lt;/color&gt; was missing while preparing his body.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This &lt;color=#FFCC000&gt;powder&lt;/color&gt; is extremely potent. </t>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Yao opened the box, revealing a damaged &lt;color=#FFCC00&gt;garment&lt;/color&gt; covered in blade marks.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00CC00&gt;(Ming’s room contained only various &lt;color=#FFCC00&gt;brushes, ink, paper, and inkstones&lt;/color&gt;.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You’re lying. Butler He noticed this morning that the Lord’s &lt;color=#FFCC00&gt;jade pendant&lt;/color&gt; was missing while preparing his body.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">This &lt;color=#FFCC00&gt;powder&lt;/color&gt; is extremely potent. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(An old &lt;color=#FFCC00&gt;abacus&lt;/color&gt; and some of the manor’s account books were found in Butler He’s room.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Ming clearly hesitated upon hearing the question.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If… I tell the truth, would it cause trouble for Mother?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If you truly wish for the truth behind your father's murder to be uncovered, please tell us what Lady Yao was really doing last night.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…Alright.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If it can help the investigation, I'm willing to speak—</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>after all, I believe my mother is innocent.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1487,10 +1516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EEC272-F350-D34D-A243-3179172F76FB}">
-  <dimension ref="A1:P176"/>
+  <dimension ref="A1:P182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1975,27 +2004,21 @@
         <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
     <row r="23" spans="1:12" ht="34">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
       <c r="B23" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C23" t="s">
-        <v>104</v>
+        <v>255</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -2006,10 +2029,10 @@
         <v>27</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>200</v>
+        <v>256</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
@@ -2021,15 +2044,15 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" ht="34">
+    <row r="25" spans="1:12" ht="51">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>202</v>
+        <v>257</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="D25" t="s">
         <v>12</v>
@@ -2037,102 +2060,119 @@
       <c r="E25" t="s">
         <v>90</v>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" ht="34">
+    <row r="26" spans="1:12" ht="17">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
       <c r="B26" s="1" t="s">
-        <v>157</v>
+        <v>258</v>
+      </c>
+      <c r="C26" t="s">
+        <v>105</v>
       </c>
       <c r="D26" t="s">
         <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>89</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12" ht="17">
       <c r="A27" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>201</v>
+        <v>259</v>
       </c>
       <c r="C27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D27" t="s">
         <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>89</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K27" s="2">
-        <v>500</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>104</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
     </row>
     <row r="28" spans="1:12" ht="17">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>46</v>
+        <v>260</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>90</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:12" ht="34">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
       <c r="B29" s="1" t="s">
-        <v>158</v>
+        <v>199</v>
+      </c>
+      <c r="C29" t="s">
+        <v>104</v>
       </c>
       <c r="D29" t="s">
         <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="51">
+        <v>89</v>
+      </c>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="1:12" ht="17">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
       <c r="B30" s="1" t="s">
-        <v>159</v>
+        <v>200</v>
+      </c>
+      <c r="C30" t="s">
+        <v>19</v>
       </c>
       <c r="D30" t="s">
         <v>12</v>
       </c>
       <c r="E30" t="s">
-        <v>87</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
     </row>
     <row r="31" spans="1:12" ht="34">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="C31" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
@@ -2140,16 +2180,15 @@
       <c r="E31" t="s">
         <v>90</v>
       </c>
+      <c r="J31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
     </row>
     <row r="32" spans="1:12" ht="34">
-      <c r="A32" t="s">
-        <v>24</v>
-      </c>
       <c r="B32" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" t="s">
-        <v>94</v>
+        <v>157</v>
       </c>
       <c r="D32" t="s">
         <v>12</v>
@@ -2160,13 +2199,13 @@
     </row>
     <row r="33" spans="1:14" ht="17">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>49</v>
+        <v>201</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="D33" t="s">
         <v>12</v>
@@ -2181,97 +2220,79 @@
         <v>500</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="34">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="17">
       <c r="A34" t="s">
         <v>22</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>203</v>
+        <v>46</v>
       </c>
       <c r="C34" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="D34" t="s">
         <v>12</v>
       </c>
       <c r="E34" t="s">
-        <v>89</v>
-      </c>
-      <c r="J34" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="1:14" ht="17">
-      <c r="A35" t="s">
-        <v>22</v>
-      </c>
+    <row r="35" spans="1:14" ht="34">
       <c r="B35" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C35" t="s">
-        <v>19</v>
+        <v>158</v>
       </c>
       <c r="D35" t="s">
         <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>89</v>
-      </c>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-    </row>
-    <row r="36" spans="1:14" ht="34">
-      <c r="A36" t="s">
-        <v>22</v>
-      </c>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="51">
       <c r="B36" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" t="s">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="D36" t="s">
         <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>89</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-    </row>
-    <row r="37" spans="1:14" ht="17">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="34">
       <c r="A37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="34">
+      <c r="A38" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" t="s">
         <v>94</v>
-      </c>
-      <c r="D37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="17">
-      <c r="A38" t="s">
-        <v>22</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" t="s">
-        <v>23</v>
       </c>
       <c r="D38" t="s">
         <v>12</v>
@@ -2280,50 +2301,81 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="34">
+    <row r="39" spans="1:14" ht="17">
+      <c r="A39" t="s">
+        <v>22</v>
+      </c>
       <c r="B39" s="1" t="s">
-        <v>205</v>
+        <v>49</v>
+      </c>
+      <c r="C39" t="s">
+        <v>19</v>
       </c>
       <c r="D39" t="s">
         <v>12</v>
       </c>
       <c r="E39" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="51">
+        <v>89</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K39" s="2">
+        <v>500</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="34">
+      <c r="A40" t="s">
+        <v>22</v>
+      </c>
       <c r="B40" s="1" t="s">
-        <v>250</v>
+        <v>203</v>
+      </c>
+      <c r="C40" t="s">
+        <v>100</v>
       </c>
       <c r="D40" t="s">
         <v>12</v>
       </c>
       <c r="E40" t="s">
-        <v>87</v>
-      </c>
-      <c r="M40" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="N40" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="51">
+        <v>89</v>
+      </c>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="1:14" ht="17">
+      <c r="A41" t="s">
+        <v>22</v>
+      </c>
       <c r="B41" s="1" t="s">
-        <v>206</v>
+        <v>132</v>
+      </c>
+      <c r="C41" t="s">
+        <v>19</v>
       </c>
       <c r="D41" t="s">
         <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>87</v>
-      </c>
-      <c r="M41" s="7"/>
-      <c r="N41" s="7"/>
-    </row>
-    <row r="42" spans="1:14" ht="17">
+        <v>89</v>
+      </c>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="1:14" ht="34">
+      <c r="A42" t="s">
+        <v>22</v>
+      </c>
       <c r="B42" s="1" t="s">
-        <v>207</v>
+        <v>50</v>
+      </c>
+      <c r="C42" t="s">
+        <v>100</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
@@ -2331,18 +2383,21 @@
       <c r="E42" t="s">
         <v>89</v>
       </c>
-      <c r="M42" s="7"/>
-      <c r="N42" s="7"/>
+      <c r="J42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
     </row>
     <row r="43" spans="1:14" ht="17">
       <c r="A43" t="s">
         <v>24</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>204</v>
+        <v>133</v>
       </c>
       <c r="C43" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D43" t="s">
         <v>12</v>
@@ -2350,14 +2405,16 @@
       <c r="E43" t="s">
         <v>89</v>
       </c>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="34">
+    </row>
+    <row r="44" spans="1:14" ht="17">
+      <c r="A44" t="s">
+        <v>22</v>
+      </c>
       <c r="B44" s="1" t="s">
-        <v>160</v>
+        <v>51</v>
+      </c>
+      <c r="C44" t="s">
+        <v>23</v>
       </c>
       <c r="D44" t="s">
         <v>12</v>
@@ -2366,143 +2423,127 @@
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="17">
-      <c r="A45" t="s">
+    <row r="45" spans="1:14" ht="34">
+      <c r="B45" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="51">
+      <c r="B46" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" t="s">
+        <v>87</v>
+      </c>
+      <c r="M46" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="N46" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="51">
+      <c r="B47" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" t="s">
+        <v>87</v>
+      </c>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+    </row>
+    <row r="48" spans="1:14" ht="17">
+      <c r="B48" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" t="s">
+        <v>89</v>
+      </c>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+    </row>
+    <row r="49" spans="1:14" ht="17">
+      <c r="A49" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C49" t="s">
+        <v>93</v>
+      </c>
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" t="s">
+        <v>89</v>
+      </c>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="34">
+      <c r="B50" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="17">
+      <c r="A51" t="s">
         <v>28</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C51" t="s">
         <v>107</v>
       </c>
-      <c r="D45" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="D51" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" t="s">
         <v>89</v>
       </c>
-      <c r="J45" s="2" t="s">
+      <c r="J51" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K45" s="2">
+      <c r="K51" s="2">
         <v>500</v>
       </c>
-      <c r="L45" s="2" t="s">
+      <c r="L51" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="34">
-      <c r="A46" t="s">
-        <v>22</v>
-      </c>
-      <c r="B46" s="1" t="s">
+    <row r="52" spans="1:14" ht="34">
+      <c r="A52" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C52" t="s">
         <v>23</v>
-      </c>
-      <c r="D46" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46" t="s">
-        <v>123</v>
-      </c>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-    </row>
-    <row r="47" spans="1:14" ht="17">
-      <c r="A47" t="s">
-        <v>28</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C47" t="s">
-        <v>108</v>
-      </c>
-      <c r="D47" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" t="s">
-        <v>123</v>
-      </c>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-    </row>
-    <row r="48" spans="1:14" ht="34">
-      <c r="B48" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D48" t="s">
-        <v>12</v>
-      </c>
-      <c r="E48" t="s">
-        <v>123</v>
-      </c>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-    </row>
-    <row r="49" spans="1:14" ht="34">
-      <c r="B49" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D49" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" t="s">
-        <v>123</v>
-      </c>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-    </row>
-    <row r="50" spans="1:14" ht="51">
-      <c r="B50" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D50" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" t="s">
-        <v>123</v>
-      </c>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-    </row>
-    <row r="51" spans="1:14" ht="51">
-      <c r="B51" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D51" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" t="s">
-        <v>123</v>
-      </c>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="N51" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" ht="17">
-      <c r="A52" t="s">
-        <v>22</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C52" t="s">
-        <v>19</v>
       </c>
       <c r="D52" t="s">
         <v>12</v>
@@ -2513,18 +2554,16 @@
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
-      <c r="M52" s="7"/>
-      <c r="N52" s="7"/>
     </row>
     <row r="53" spans="1:14" ht="17">
       <c r="A53" t="s">
         <v>28</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>244</v>
+        <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D53" t="s">
         <v>12</v>
@@ -2535,18 +2574,10 @@
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
-      <c r="M53" s="7"/>
-      <c r="N53" s="7"/>
     </row>
     <row r="54" spans="1:14" ht="34">
-      <c r="A54" t="s">
-        <v>28</v>
-      </c>
       <c r="B54" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C54" t="s">
-        <v>109</v>
+        <v>161</v>
       </c>
       <c r="D54" t="s">
         <v>12</v>
@@ -2557,20 +2588,10 @@
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
-      <c r="M54" s="7"/>
-      <c r="N54" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" ht="17">
-      <c r="A55" t="s">
-        <v>22</v>
-      </c>
+    </row>
+    <row r="55" spans="1:14" ht="34">
       <c r="B55" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C55" t="s">
-        <v>19</v>
+        <v>162</v>
       </c>
       <c r="D55" t="s">
         <v>12</v>
@@ -2578,25 +2599,13 @@
       <c r="E55" t="s">
         <v>123</v>
       </c>
-      <c r="J55" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K55" s="2">
-        <v>500</v>
-      </c>
-      <c r="L55" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" ht="17">
-      <c r="A56" t="s">
-        <v>28</v>
-      </c>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+    </row>
+    <row r="56" spans="1:14" ht="51">
       <c r="B56" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C56" t="s">
-        <v>106</v>
+        <v>163</v>
       </c>
       <c r="D56" t="s">
         <v>12</v>
@@ -2608,15 +2617,9 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
     </row>
-    <row r="57" spans="1:14" ht="34">
-      <c r="A57" t="s">
-        <v>28</v>
-      </c>
+    <row r="57" spans="1:14" ht="51">
       <c r="B57" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C57" t="s">
-        <v>107</v>
+        <v>250</v>
       </c>
       <c r="D57" t="s">
         <v>12</v>
@@ -2627,16 +2630,22 @@
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
-    </row>
-    <row r="58" spans="1:14" ht="34">
+      <c r="M57" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="N57" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="17">
       <c r="A58" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>58</v>
+        <v>208</v>
       </c>
       <c r="C58" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="D58" t="s">
         <v>12</v>
@@ -2644,21 +2653,21 @@
       <c r="E58" t="s">
         <v>123</v>
       </c>
-      <c r="J58" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="J58" s="2"/>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
     </row>
     <row r="59" spans="1:14" ht="17">
       <c r="A59" t="s">
         <v>28</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>59</v>
+        <v>244</v>
       </c>
       <c r="C59" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D59" t="s">
         <v>12</v>
@@ -2666,93 +2675,147 @@
       <c r="E59" t="s">
         <v>123</v>
       </c>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
     </row>
     <row r="60" spans="1:14" ht="34">
       <c r="A60" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C60" t="s">
+        <v>109</v>
+      </c>
+      <c r="D60" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" t="s">
+        <v>123</v>
+      </c>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="17">
+      <c r="A61" t="s">
+        <v>22</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C61" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" t="s">
+        <v>123</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K61" s="2">
+        <v>500</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="17">
+      <c r="A62" t="s">
+        <v>28</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C62" t="s">
+        <v>106</v>
+      </c>
+      <c r="D62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" t="s">
+        <v>123</v>
+      </c>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+    </row>
+    <row r="63" spans="1:14" ht="34">
+      <c r="A63" t="s">
+        <v>28</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C63" t="s">
+        <v>107</v>
+      </c>
+      <c r="D63" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" t="s">
+        <v>123</v>
+      </c>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+    </row>
+    <row r="64" spans="1:14" ht="34">
+      <c r="A64" t="s">
+        <v>28</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C64" t="s">
+        <v>106</v>
+      </c>
+      <c r="D64" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" t="s">
+        <v>123</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+    </row>
+    <row r="65" spans="1:14" ht="17">
+      <c r="A65" t="s">
+        <v>28</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C65" t="s">
+        <v>106</v>
+      </c>
+      <c r="D65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="34">
+      <c r="A66" t="s">
+        <v>22</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="C60" t="s">
-        <v>19</v>
-      </c>
-      <c r="D60" t="s">
-        <v>12</v>
-      </c>
-      <c r="E60" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" ht="34">
-      <c r="B61" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D61" t="s">
-        <v>12</v>
-      </c>
-      <c r="E61" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" ht="51">
-      <c r="B62" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D62" t="s">
-        <v>12</v>
-      </c>
-      <c r="E62" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" ht="51">
-      <c r="B63" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D63" t="s">
-        <v>12</v>
-      </c>
-      <c r="E63" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" ht="51">
-      <c r="B64" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D64" t="s">
-        <v>12</v>
-      </c>
-      <c r="E64" t="s">
-        <v>87</v>
-      </c>
-      <c r="M64" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="N64" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" ht="34">
-      <c r="B65" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D65" t="s">
-        <v>12</v>
-      </c>
-      <c r="E65" t="s">
-        <v>87</v>
-      </c>
-      <c r="M65" s="7"/>
-      <c r="N65" s="7"/>
-    </row>
-    <row r="66" spans="1:14" ht="17">
-      <c r="A66" t="s">
-        <v>22</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="C66" t="s">
         <v>19</v>
@@ -2761,138 +2824,110 @@
         <v>12</v>
       </c>
       <c r="E66" t="s">
-        <v>89</v>
-      </c>
-      <c r="M66" s="7"/>
-      <c r="N66" s="7" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="34">
       <c r="B67" s="1" t="s">
-        <v>164</v>
+        <v>210</v>
       </c>
       <c r="D67" t="s">
         <v>12</v>
       </c>
       <c r="E67" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="51">
+      <c r="B68" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D68" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="51">
+      <c r="B69" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D69" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="51">
+      <c r="B70" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D70" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70" t="s">
+        <v>87</v>
+      </c>
+      <c r="M70" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="N70" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="34">
+      <c r="B71" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D71" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" t="s">
+        <v>87</v>
+      </c>
+      <c r="M71" s="7"/>
+      <c r="N71" s="7"/>
+    </row>
+    <row r="72" spans="1:14" ht="17">
+      <c r="A72" t="s">
+        <v>22</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C72" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" ht="17">
-      <c r="A68" t="s">
-        <v>29</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C68" t="s">
-        <v>110</v>
-      </c>
-      <c r="D68" t="s">
-        <v>12</v>
-      </c>
-      <c r="E68" t="s">
-        <v>89</v>
-      </c>
-      <c r="J68" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K68" s="2">
-        <v>500</v>
-      </c>
-      <c r="L68" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" ht="34">
-      <c r="A69" t="s">
-        <v>22</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C69" t="s">
-        <v>19</v>
-      </c>
-      <c r="D69" t="s">
-        <v>12</v>
-      </c>
-      <c r="E69" t="s">
-        <v>123</v>
-      </c>
-      <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
-    </row>
-    <row r="70" spans="1:14" ht="17">
-      <c r="A70" t="s">
-        <v>29</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C70" t="s">
-        <v>111</v>
-      </c>
-      <c r="D70" t="s">
-        <v>12</v>
-      </c>
-      <c r="E70" t="s">
-        <v>123</v>
-      </c>
-      <c r="J70" s="2"/>
-      <c r="K70" s="2"/>
-      <c r="L70" s="2"/>
-    </row>
-    <row r="71" spans="1:14" ht="51">
-      <c r="B71" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D71" t="s">
-        <v>12</v>
-      </c>
-      <c r="E71" t="s">
-        <v>123</v>
-      </c>
-      <c r="J71" s="2"/>
-      <c r="K71" s="2"/>
-      <c r="L71" s="2"/>
-    </row>
-    <row r="72" spans="1:14" ht="34">
-      <c r="B72" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D72" t="s">
-        <v>12</v>
-      </c>
-      <c r="E72" t="s">
-        <v>123</v>
-      </c>
-      <c r="J72" s="2"/>
-      <c r="K72" s="2"/>
-      <c r="L72" s="2"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="73" spans="1:14" ht="34">
       <c r="B73" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D73" t="s">
         <v>12</v>
       </c>
       <c r="E73" t="s">
-        <v>123</v>
-      </c>
-      <c r="J73" s="2"/>
-      <c r="K73" s="2"/>
-      <c r="L73" s="2"/>
+        <v>89</v>
+      </c>
     </row>
     <row r="74" spans="1:14" ht="17">
       <c r="A74" t="s">
         <v>29</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>214</v>
+        <v>61</v>
       </c>
       <c r="C74" t="s">
         <v>110</v>
@@ -2901,21 +2936,27 @@
         <v>12</v>
       </c>
       <c r="E74" t="s">
-        <v>123</v>
-      </c>
-      <c r="J74" s="2"/>
-      <c r="K74" s="2"/>
-      <c r="L74" s="2"/>
-    </row>
-    <row r="75" spans="1:14" ht="17">
+        <v>89</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K74" s="2">
+        <v>500</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="34">
       <c r="A75" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C75" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="D75" t="s">
         <v>12</v>
@@ -2927,12 +2968,12 @@
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
     </row>
-    <row r="76" spans="1:14" ht="34">
+    <row r="76" spans="1:14" ht="17">
       <c r="A76" t="s">
         <v>29</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>134</v>
+        <v>62</v>
       </c>
       <c r="C76" t="s">
         <v>111</v>
@@ -2947,15 +2988,9 @@
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
     </row>
-    <row r="77" spans="1:14" ht="34">
-      <c r="A77" t="s">
-        <v>29</v>
-      </c>
+    <row r="77" spans="1:14" ht="51">
       <c r="B77" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C77" t="s">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="D77" t="s">
         <v>12</v>
@@ -2967,15 +3002,9 @@
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
     </row>
-    <row r="78" spans="1:14" ht="51">
-      <c r="A78" t="s">
-        <v>29</v>
-      </c>
+    <row r="78" spans="1:14" ht="34">
       <c r="B78" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C78" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
       <c r="D78" t="s">
         <v>12</v>
@@ -2987,15 +3016,9 @@
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
     </row>
-    <row r="79" spans="1:14" ht="17">
-      <c r="A79" t="s">
-        <v>22</v>
-      </c>
+    <row r="79" spans="1:14" ht="34">
       <c r="B79" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C79" t="s">
-        <v>19</v>
+        <v>167</v>
       </c>
       <c r="D79" t="s">
         <v>12</v>
@@ -3003,151 +3026,163 @@
       <c r="E79" t="s">
         <v>123</v>
       </c>
-      <c r="J79" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="J79" s="2"/>
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
     </row>
-    <row r="80" spans="1:14" ht="51">
+    <row r="80" spans="1:14" ht="17">
+      <c r="A80" t="s">
+        <v>29</v>
+      </c>
       <c r="B80" s="1" t="s">
-        <v>168</v>
+        <v>214</v>
+      </c>
+      <c r="C80" t="s">
+        <v>110</v>
       </c>
       <c r="D80" t="s">
         <v>12</v>
       </c>
       <c r="E80" t="s">
-        <v>87</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
     </row>
     <row r="81" spans="1:12" ht="17">
+      <c r="A81" t="s">
+        <v>29</v>
+      </c>
       <c r="B81" s="1" t="s">
-        <v>169</v>
+        <v>215</v>
+      </c>
+      <c r="C81" t="s">
+        <v>110</v>
       </c>
       <c r="D81" t="s">
         <v>12</v>
       </c>
       <c r="E81" t="s">
-        <v>87</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
     </row>
     <row r="82" spans="1:12" ht="34">
       <c r="A82" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>64</v>
+        <v>134</v>
       </c>
       <c r="C82" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="D82" t="s">
         <v>12</v>
       </c>
       <c r="E82" t="s">
-        <v>89</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
     </row>
     <row r="83" spans="1:12" ht="34">
       <c r="A83" t="s">
+        <v>29</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C83" t="s">
+        <v>110</v>
+      </c>
+      <c r="D83" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83" t="s">
+        <v>123</v>
+      </c>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+    </row>
+    <row r="84" spans="1:12" ht="51">
+      <c r="A84" t="s">
+        <v>29</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C84" t="s">
+        <v>111</v>
+      </c>
+      <c r="D84" t="s">
+        <v>12</v>
+      </c>
+      <c r="E84" t="s">
+        <v>123</v>
+      </c>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
+    </row>
+    <row r="85" spans="1:12" ht="17">
+      <c r="A85" t="s">
+        <v>22</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C85" t="s">
+        <v>19</v>
+      </c>
+      <c r="D85" t="s">
+        <v>12</v>
+      </c>
+      <c r="E85" t="s">
+        <v>123</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2"/>
+    </row>
+    <row r="86" spans="1:12" ht="51">
+      <c r="B86" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D86" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="17">
+      <c r="B87" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D87" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="34">
+      <c r="A88" t="s">
         <v>24</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="B88" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C88" t="s">
         <v>95</v>
-      </c>
-      <c r="D83" t="s">
-        <v>12</v>
-      </c>
-      <c r="E83" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" ht="34">
-      <c r="A84" t="s">
-        <v>22</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C84" t="s">
-        <v>19</v>
-      </c>
-      <c r="D84" t="s">
-        <v>12</v>
-      </c>
-      <c r="E84" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" ht="34">
-      <c r="B85" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D85" t="s">
-        <v>12</v>
-      </c>
-      <c r="E85" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" ht="17">
-      <c r="A86" t="s">
-        <v>30</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C86" t="s">
-        <v>112</v>
-      </c>
-      <c r="D86" t="s">
-        <v>12</v>
-      </c>
-      <c r="E86" t="s">
-        <v>89</v>
-      </c>
-      <c r="J86" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K86" s="2">
-        <v>500</v>
-      </c>
-      <c r="L86" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" ht="34">
-      <c r="A87" t="s">
-        <v>22</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C87" t="s">
-        <v>19</v>
-      </c>
-      <c r="D87" t="s">
-        <v>12</v>
-      </c>
-      <c r="E87" t="s">
-        <v>89</v>
-      </c>
-      <c r="J87" s="2"/>
-      <c r="K87" s="2"/>
-      <c r="L87" s="2"/>
-    </row>
-    <row r="88" spans="1:12" ht="17">
-      <c r="A88" t="s">
-        <v>22</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C88" t="s">
-        <v>100</v>
       </c>
       <c r="D88" t="s">
         <v>12</v>
@@ -3155,39 +3190,33 @@
       <c r="E88" t="s">
         <v>89</v>
       </c>
-      <c r="J88" s="2"/>
-      <c r="K88" s="2"/>
-      <c r="L88" s="2"/>
     </row>
     <row r="89" spans="1:12" ht="34">
       <c r="A89" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>185</v>
+        <v>65</v>
       </c>
       <c r="C89" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D89" t="s">
         <v>12</v>
       </c>
       <c r="E89" t="s">
-        <v>90</v>
-      </c>
-      <c r="J89" s="2"/>
-      <c r="K89" s="2"/>
-      <c r="L89" s="2"/>
+        <v>89</v>
+      </c>
     </row>
     <row r="90" spans="1:12" ht="34">
       <c r="A90" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C90" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="D90" t="s">
         <v>12</v>
@@ -3195,19 +3224,10 @@
       <c r="E90" t="s">
         <v>89</v>
       </c>
-      <c r="J90" s="2"/>
-      <c r="K90" s="2"/>
-      <c r="L90" s="2"/>
     </row>
     <row r="91" spans="1:12" ht="34">
-      <c r="A91" t="s">
-        <v>30</v>
-      </c>
       <c r="B91" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C91" t="s">
-        <v>113</v>
+        <v>217</v>
       </c>
       <c r="D91" t="s">
         <v>12</v>
@@ -3215,19 +3235,16 @@
       <c r="E91" t="s">
         <v>89</v>
       </c>
-      <c r="J91" s="2"/>
-      <c r="K91" s="2"/>
-      <c r="L91" s="2"/>
-    </row>
-    <row r="92" spans="1:12" ht="34">
+    </row>
+    <row r="92" spans="1:12" ht="17">
       <c r="A92" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>218</v>
+        <v>67</v>
       </c>
       <c r="C92" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="D92" t="s">
         <v>12</v>
@@ -3235,19 +3252,25 @@
       <c r="E92" t="s">
         <v>89</v>
       </c>
-      <c r="J92" s="2"/>
-      <c r="K92" s="2"/>
-      <c r="L92" s="2"/>
+      <c r="J92" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K92" s="2">
+        <v>500</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="93" spans="1:12" ht="34">
       <c r="A93" t="s">
         <v>22</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C93" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="D93" t="s">
         <v>12</v>
@@ -3259,15 +3282,15 @@
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
     </row>
-    <row r="94" spans="1:12" ht="34">
+    <row r="94" spans="1:12" ht="17">
       <c r="A94" t="s">
         <v>22</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>72</v>
+        <v>186</v>
       </c>
       <c r="C94" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="D94" t="s">
         <v>12</v>
@@ -3279,38 +3302,32 @@
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
     </row>
-    <row r="95" spans="1:12" ht="17">
+    <row r="95" spans="1:12" ht="34">
       <c r="A95" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>73</v>
+        <v>185</v>
       </c>
       <c r="C95" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="D95" t="s">
         <v>12</v>
       </c>
       <c r="E95" t="s">
-        <v>89</v>
-      </c>
-      <c r="J95" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="K95" s="2">
-        <v>500</v>
-      </c>
-      <c r="L95" s="2" t="s">
-        <v>121</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
     </row>
     <row r="96" spans="1:12" ht="34">
       <c r="A96" t="s">
         <v>30</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C96" t="s">
         <v>113</v>
@@ -3325,75 +3342,81 @@
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
     </row>
-    <row r="97" spans="1:14" ht="51">
+    <row r="97" spans="1:14" ht="34">
+      <c r="A97" t="s">
+        <v>30</v>
+      </c>
       <c r="B97" s="1" t="s">
-        <v>170</v>
+        <v>70</v>
+      </c>
+      <c r="C97" t="s">
+        <v>113</v>
       </c>
       <c r="D97" t="s">
         <v>12</v>
       </c>
       <c r="E97" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
     </row>
-    <row r="98" spans="1:14" ht="17">
+    <row r="98" spans="1:14" ht="34">
       <c r="A98" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>75</v>
+        <v>218</v>
       </c>
       <c r="C98" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="D98" t="s">
         <v>12</v>
       </c>
       <c r="E98" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
     </row>
-    <row r="99" spans="1:14" ht="17">
+    <row r="99" spans="1:14" ht="34">
       <c r="A99" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C99" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="D99" t="s">
         <v>12</v>
       </c>
       <c r="E99" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
     </row>
-    <row r="100" spans="1:14" ht="17">
+    <row r="100" spans="1:14" ht="34">
       <c r="A100" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C100" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="D100" t="s">
         <v>12</v>
       </c>
       <c r="E100" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
@@ -3404,7 +3427,7 @@
         <v>30</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C101" t="s">
         <v>113</v>
@@ -3413,47 +3436,41 @@
         <v>12</v>
       </c>
       <c r="E101" t="s">
-        <v>123</v>
-      </c>
-      <c r="J101" s="2"/>
-      <c r="K101" s="2"/>
-      <c r="L101" s="2"/>
-    </row>
-    <row r="102" spans="1:14" ht="17">
+        <v>89</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K101" s="2">
+        <v>500</v>
+      </c>
+      <c r="L101" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" ht="34">
       <c r="A102" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C102" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="D102" t="s">
         <v>12</v>
       </c>
       <c r="E102" t="s">
-        <v>123</v>
-      </c>
-      <c r="J102" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K102" s="2">
-        <v>500</v>
-      </c>
-      <c r="L102" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" ht="17">
-      <c r="A103" t="s">
-        <v>22</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="J102" s="2"/>
+      <c r="K102" s="2"/>
+      <c r="L102" s="2"/>
+    </row>
+    <row r="103" spans="1:14" ht="51">
       <c r="B103" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C103" t="s">
-        <v>19</v>
+        <v>170</v>
       </c>
       <c r="D103" t="s">
         <v>12</v>
@@ -3467,13 +3484,13 @@
     </row>
     <row r="104" spans="1:14" ht="17">
       <c r="A104" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C104" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D104" t="s">
         <v>12</v>
@@ -3481,21 +3498,19 @@
       <c r="E104" t="s">
         <v>123</v>
       </c>
-      <c r="J104" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="J104" s="2"/>
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
     </row>
-    <row r="105" spans="1:14" ht="51">
+    <row r="105" spans="1:14" ht="17">
       <c r="A105" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>253</v>
+        <v>76</v>
       </c>
       <c r="C105" t="s">
-        <v>19</v>
+        <v>114</v>
       </c>
       <c r="D105" t="s">
         <v>12</v>
@@ -3503,22 +3518,19 @@
       <c r="E105" t="s">
         <v>123</v>
       </c>
-      <c r="M105" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="N105" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" ht="34">
+      <c r="J105" s="2"/>
+      <c r="K105" s="2"/>
+      <c r="L105" s="2"/>
+    </row>
+    <row r="106" spans="1:14" ht="17">
       <c r="A106" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>219</v>
+        <v>77</v>
       </c>
       <c r="C106" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="D106" t="s">
         <v>12</v>
@@ -3526,18 +3538,19 @@
       <c r="E106" t="s">
         <v>123</v>
       </c>
-      <c r="M106" s="7"/>
-      <c r="N106" s="7"/>
+      <c r="J106" s="2"/>
+      <c r="K106" s="2"/>
+      <c r="L106" s="2"/>
     </row>
     <row r="107" spans="1:14" ht="17">
       <c r="A107" t="s">
         <v>30</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>187</v>
+        <v>78</v>
       </c>
       <c r="C107" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D107" t="s">
         <v>12</v>
@@ -3545,20 +3558,19 @@
       <c r="E107" t="s">
         <v>123</v>
       </c>
-      <c r="M107" s="7"/>
-      <c r="N107" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" ht="34">
+      <c r="J107" s="2"/>
+      <c r="K107" s="2"/>
+      <c r="L107" s="2"/>
+    </row>
+    <row r="108" spans="1:14" ht="17">
       <c r="A108" t="s">
         <v>24</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C108" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D108" t="s">
         <v>12</v>
@@ -3573,18 +3585,18 @@
         <v>500</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" ht="34">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" ht="17">
       <c r="A109" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C109" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="D109" t="s">
         <v>12</v>
@@ -3596,15 +3608,15 @@
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
     </row>
-    <row r="110" spans="1:14" ht="34">
+    <row r="110" spans="1:14" ht="17">
       <c r="A110" t="s">
         <v>30</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C110" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D110" t="s">
         <v>12</v>
@@ -3612,39 +3624,44 @@
       <c r="E110" t="s">
         <v>123</v>
       </c>
-      <c r="J110" s="2"/>
+      <c r="J110" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
     </row>
-    <row r="111" spans="1:14" ht="34">
+    <row r="111" spans="1:14" ht="51">
       <c r="A111" t="s">
+        <v>22</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C111" t="s">
+        <v>19</v>
+      </c>
+      <c r="D111" t="s">
+        <v>12</v>
+      </c>
+      <c r="E111" t="s">
+        <v>123</v>
+      </c>
+      <c r="M111" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="N111" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" ht="34">
+      <c r="A112" t="s">
         <v>30</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C111" t="s">
-        <v>112</v>
-      </c>
-      <c r="D111" t="s">
-        <v>12</v>
-      </c>
-      <c r="E111" t="s">
-        <v>123</v>
-      </c>
-      <c r="J111" s="2"/>
-      <c r="K111" s="2"/>
-      <c r="L111" s="2"/>
-    </row>
-    <row r="112" spans="1:14" ht="17">
-      <c r="A112" t="s">
-        <v>22</v>
-      </c>
       <c r="B112" s="1" t="s">
-        <v>85</v>
+        <v>219</v>
       </c>
       <c r="C112" t="s">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="D112" t="s">
         <v>12</v>
@@ -3652,19 +3669,18 @@
       <c r="E112" t="s">
         <v>123</v>
       </c>
-      <c r="J112" s="2"/>
-      <c r="K112" s="2"/>
-      <c r="L112" s="2"/>
-    </row>
-    <row r="113" spans="1:12" ht="34">
+      <c r="M112" s="7"/>
+      <c r="N112" s="7"/>
+    </row>
+    <row r="113" spans="1:14" ht="17">
       <c r="A113" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>86</v>
+        <v>187</v>
       </c>
       <c r="C113" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="D113" t="s">
         <v>12</v>
@@ -3672,19 +3688,20 @@
       <c r="E113" t="s">
         <v>123</v>
       </c>
-      <c r="J113" s="2"/>
-      <c r="K113" s="2"/>
-      <c r="L113" s="2"/>
-    </row>
-    <row r="114" spans="1:12" ht="34">
+      <c r="M113" s="7"/>
+      <c r="N113" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" ht="34">
       <c r="A114" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>220</v>
+        <v>82</v>
       </c>
       <c r="C114" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="D114" t="s">
         <v>12</v>
@@ -3692,19 +3709,25 @@
       <c r="E114" t="s">
         <v>123</v>
       </c>
-      <c r="J114" s="2"/>
-      <c r="K114" s="2"/>
-      <c r="L114" s="2"/>
-    </row>
-    <row r="115" spans="1:12" ht="17">
+      <c r="J114" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K114" s="2">
+        <v>500</v>
+      </c>
+      <c r="L114" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" ht="34">
       <c r="A115" t="s">
         <v>30</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>184</v>
+        <v>83</v>
       </c>
       <c r="C115" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D115" t="s">
         <v>12</v>
@@ -3712,90 +3735,79 @@
       <c r="E115" t="s">
         <v>123</v>
       </c>
-      <c r="J115" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="J115" s="2"/>
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
     </row>
-    <row r="116" spans="1:12" ht="34">
+    <row r="116" spans="1:14" ht="34">
+      <c r="A116" t="s">
+        <v>30</v>
+      </c>
       <c r="B116" s="1" t="s">
-        <v>171</v>
+        <v>84</v>
+      </c>
+      <c r="C116" t="s">
+        <v>112</v>
       </c>
       <c r="D116" t="s">
         <v>12</v>
       </c>
       <c r="E116" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" ht="51">
+        <v>123</v>
+      </c>
+      <c r="J116" s="2"/>
+      <c r="K116" s="2"/>
+      <c r="L116" s="2"/>
+    </row>
+    <row r="117" spans="1:14" ht="34">
       <c r="A117" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="C117" t="s">
+        <v>112</v>
+      </c>
+      <c r="D117" t="s">
+        <v>12</v>
+      </c>
+      <c r="E117" t="s">
+        <v>123</v>
+      </c>
+      <c r="J117" s="2"/>
+      <c r="K117" s="2"/>
+      <c r="L117" s="2"/>
+    </row>
+    <row r="118" spans="1:14" ht="17">
+      <c r="A118" t="s">
+        <v>22</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C118" t="s">
         <v>19</v>
       </c>
-      <c r="D117" t="s">
-        <v>12</v>
-      </c>
-      <c r="E117" t="s">
-        <v>123</v>
-      </c>
-      <c r="G117" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H117" s="3">
-        <v>0</v>
-      </c>
-      <c r="I117" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J117" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K117" s="2">
-        <v>0</v>
-      </c>
-      <c r="L117" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" ht="51">
-      <c r="A118" t="s">
-        <v>24</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C118" t="s">
-        <v>92</v>
-      </c>
       <c r="D118" t="s">
         <v>12</v>
       </c>
       <c r="E118" t="s">
         <v>123</v>
       </c>
-      <c r="G118" s="3"/>
-      <c r="H118" s="3"/>
-      <c r="I118" s="3"/>
       <c r="J118" s="2"/>
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
     </row>
-    <row r="119" spans="1:12" ht="34">
+    <row r="119" spans="1:14" ht="34">
       <c r="A119" t="s">
         <v>22</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="C119" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D119" t="s">
         <v>12</v>
@@ -3803,19 +3815,16 @@
       <c r="E119" t="s">
         <v>123</v>
       </c>
-      <c r="G119" s="3"/>
-      <c r="H119" s="3"/>
-      <c r="I119" s="3"/>
       <c r="J119" s="2"/>
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
     </row>
-    <row r="120" spans="1:12" ht="34">
+    <row r="120" spans="1:14" ht="34">
       <c r="A120" t="s">
         <v>22</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="C120" t="s">
         <v>19</v>
@@ -3826,22 +3835,19 @@
       <c r="E120" t="s">
         <v>123</v>
       </c>
-      <c r="G120" s="3"/>
-      <c r="H120" s="3"/>
-      <c r="I120" s="3"/>
       <c r="J120" s="2"/>
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
     </row>
-    <row r="121" spans="1:12" ht="34">
+    <row r="121" spans="1:14" ht="17">
       <c r="A121" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>221</v>
+        <v>184</v>
       </c>
       <c r="C121" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="D121" t="s">
         <v>12</v>
@@ -3849,68 +3855,67 @@
       <c r="E121" t="s">
         <v>123</v>
       </c>
-      <c r="G121" s="3"/>
-      <c r="H121" s="3"/>
-      <c r="I121" s="3"/>
-      <c r="J121" s="2"/>
+      <c r="J121" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
     </row>
-    <row r="122" spans="1:12" ht="17">
-      <c r="A122" t="s">
+    <row r="122" spans="1:14" ht="34">
+      <c r="B122" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D122" t="s">
+        <v>12</v>
+      </c>
+      <c r="E122" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" ht="51">
+      <c r="A123" t="s">
+        <v>22</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C123" t="s">
+        <v>19</v>
+      </c>
+      <c r="D123" t="s">
+        <v>12</v>
+      </c>
+      <c r="E123" t="s">
+        <v>123</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H123" s="3">
+        <v>0</v>
+      </c>
+      <c r="I123" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J123" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K123" s="2">
+        <v>0</v>
+      </c>
+      <c r="L123" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" ht="51">
+      <c r="A124" t="s">
         <v>24</v>
       </c>
-      <c r="B122" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C122" t="s">
-        <v>94</v>
-      </c>
-      <c r="D122" t="s">
-        <v>12</v>
-      </c>
-      <c r="E122" t="s">
-        <v>123</v>
-      </c>
-      <c r="G122" s="3"/>
-      <c r="H122" s="3"/>
-      <c r="I122" s="3"/>
-      <c r="J122" s="2"/>
-      <c r="K122" s="2"/>
-      <c r="L122" s="2"/>
-    </row>
-    <row r="123" spans="1:12" ht="51">
-      <c r="A123" t="s">
-        <v>24</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C123" t="s">
-        <v>94</v>
-      </c>
-      <c r="D123" t="s">
-        <v>12</v>
-      </c>
-      <c r="E123" t="s">
-        <v>123</v>
-      </c>
-      <c r="G123" s="3"/>
-      <c r="H123" s="3"/>
-      <c r="I123" s="3"/>
-      <c r="J123" s="2"/>
-      <c r="K123" s="2"/>
-      <c r="L123" s="2"/>
-    </row>
-    <row r="124" spans="1:12" ht="34">
-      <c r="A124" t="s">
-        <v>22</v>
-      </c>
       <c r="B124" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C124" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D124" t="s">
         <v>12</v>
@@ -3918,80 +3923,91 @@
       <c r="E124" t="s">
         <v>123</v>
       </c>
-      <c r="G124" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="G124" s="3"/>
       <c r="H124" s="3"/>
       <c r="I124" s="3"/>
-      <c r="J124" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="J124" s="2"/>
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
     </row>
-    <row r="125" spans="1:12" ht="34">
+    <row r="125" spans="1:14" ht="34">
       <c r="A125" t="s">
         <v>22</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C125" t="s">
+        <v>98</v>
+      </c>
+      <c r="D125" t="s">
+        <v>12</v>
+      </c>
+      <c r="E125" t="s">
+        <v>123</v>
+      </c>
+      <c r="G125" s="3"/>
+      <c r="H125" s="3"/>
+      <c r="I125" s="3"/>
+      <c r="J125" s="2"/>
+      <c r="K125" s="2"/>
+      <c r="L125" s="2"/>
+    </row>
+    <row r="126" spans="1:14" ht="34">
+      <c r="A126" t="s">
+        <v>22</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C126" t="s">
         <v>19</v>
       </c>
-      <c r="D125" t="s">
-        <v>12</v>
-      </c>
-      <c r="E125" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" ht="17">
-      <c r="A126" t="s">
+      <c r="D126" t="s">
+        <v>12</v>
+      </c>
+      <c r="E126" t="s">
+        <v>123</v>
+      </c>
+      <c r="G126" s="3"/>
+      <c r="H126" s="3"/>
+      <c r="I126" s="3"/>
+      <c r="J126" s="2"/>
+      <c r="K126" s="2"/>
+      <c r="L126" s="2"/>
+    </row>
+    <row r="127" spans="1:14" ht="34">
+      <c r="A127" t="s">
+        <v>22</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C127" t="s">
+        <v>19</v>
+      </c>
+      <c r="D127" t="s">
+        <v>12</v>
+      </c>
+      <c r="E127" t="s">
+        <v>123</v>
+      </c>
+      <c r="G127" s="3"/>
+      <c r="H127" s="3"/>
+      <c r="I127" s="3"/>
+      <c r="J127" s="2"/>
+      <c r="K127" s="2"/>
+      <c r="L127" s="2"/>
+    </row>
+    <row r="128" spans="1:14" ht="17">
+      <c r="A128" t="s">
         <v>24</v>
       </c>
-      <c r="B126" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C126" t="s">
-        <v>92</v>
-      </c>
-      <c r="D126" t="s">
-        <v>12</v>
-      </c>
-      <c r="E126" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" ht="34">
-      <c r="B127" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D127" t="s">
-        <v>12</v>
-      </c>
-      <c r="E127" t="s">
-        <v>123</v>
-      </c>
-      <c r="J127" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K127" s="2">
-        <v>500</v>
-      </c>
-      <c r="L127" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" ht="34">
-      <c r="A128" t="s">
-        <v>22</v>
-      </c>
       <c r="B128" s="1" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
       <c r="C128" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="D128" t="s">
         <v>12</v>
@@ -3999,13 +4015,22 @@
       <c r="E128" t="s">
         <v>123</v>
       </c>
+      <c r="G128" s="3"/>
+      <c r="H128" s="3"/>
+      <c r="I128" s="3"/>
       <c r="J128" s="2"/>
       <c r="K128" s="2"/>
       <c r="L128" s="2"/>
     </row>
-    <row r="129" spans="1:14" ht="34">
+    <row r="129" spans="1:14" ht="51">
+      <c r="A129" t="s">
+        <v>24</v>
+      </c>
       <c r="B129" s="1" t="s">
-        <v>173</v>
+        <v>222</v>
+      </c>
+      <c r="C129" t="s">
+        <v>94</v>
       </c>
       <c r="D129" t="s">
         <v>12</v>
@@ -4013,15 +4038,22 @@
       <c r="E129" t="s">
         <v>123</v>
       </c>
-      <c r="J129" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="G129" s="3"/>
+      <c r="H129" s="3"/>
+      <c r="I129" s="3"/>
+      <c r="J129" s="2"/>
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
     </row>
-    <row r="130" spans="1:14" ht="17">
+    <row r="130" spans="1:14" ht="34">
+      <c r="A130" t="s">
+        <v>22</v>
+      </c>
       <c r="B130" s="1" t="s">
-        <v>174</v>
+        <v>140</v>
+      </c>
+      <c r="C130" t="s">
+        <v>98</v>
       </c>
       <c r="D130" t="s">
         <v>12</v>
@@ -4029,16 +4061,26 @@
       <c r="E130" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="131" spans="1:14" ht="17">
+      <c r="G130" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H130" s="3"/>
+      <c r="I130" s="3"/>
+      <c r="J130" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K130" s="2"/>
+      <c r="L130" s="2"/>
+    </row>
+    <row r="131" spans="1:14" ht="34">
       <c r="A131" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C131" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="D131" t="s">
         <v>12</v>
@@ -4049,149 +4091,150 @@
     </row>
     <row r="132" spans="1:14" ht="17">
       <c r="A132" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>254</v>
+        <v>142</v>
       </c>
       <c r="C132" t="s">
+        <v>92</v>
+      </c>
+      <c r="D132" t="s">
+        <v>12</v>
+      </c>
+      <c r="E132" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" ht="34">
+      <c r="B133" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D133" t="s">
+        <v>12</v>
+      </c>
+      <c r="E133" t="s">
+        <v>123</v>
+      </c>
+      <c r="J133" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K133" s="2">
+        <v>500</v>
+      </c>
+      <c r="L133" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" ht="34">
+      <c r="A134" t="s">
+        <v>22</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C134" t="s">
+        <v>19</v>
+      </c>
+      <c r="D134" t="s">
+        <v>12</v>
+      </c>
+      <c r="E134" t="s">
+        <v>123</v>
+      </c>
+      <c r="J134" s="2"/>
+      <c r="K134" s="2"/>
+      <c r="L134" s="2"/>
+    </row>
+    <row r="135" spans="1:14" ht="34">
+      <c r="B135" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D135" t="s">
+        <v>12</v>
+      </c>
+      <c r="E135" t="s">
+        <v>123</v>
+      </c>
+      <c r="J135" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K135" s="2"/>
+      <c r="L135" s="2"/>
+    </row>
+    <row r="136" spans="1:14" ht="17">
+      <c r="B136" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D136" t="s">
+        <v>12</v>
+      </c>
+      <c r="E136" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" ht="17">
+      <c r="A137" t="s">
+        <v>24</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C137" t="s">
+        <v>96</v>
+      </c>
+      <c r="D137" t="s">
+        <v>12</v>
+      </c>
+      <c r="E137" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" ht="17">
+      <c r="A138" t="s">
+        <v>22</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C138" t="s">
         <v>124</v>
       </c>
-      <c r="D132" t="s">
-        <v>12</v>
-      </c>
-      <c r="E132" t="s">
-        <v>123</v>
-      </c>
-      <c r="M132" s="7" t="s">
+      <c r="D138" t="s">
+        <v>12</v>
+      </c>
+      <c r="E138" t="s">
+        <v>123</v>
+      </c>
+      <c r="M138" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="N132" s="7" t="s">
+      <c r="N138" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="133" spans="1:14" ht="34">
-      <c r="A133" t="s">
-        <v>22</v>
-      </c>
-      <c r="B133" s="1" t="s">
+    <row r="139" spans="1:14" ht="34">
+      <c r="A139" t="s">
+        <v>22</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C139" t="s">
         <v>124</v>
       </c>
-      <c r="D133" t="s">
-        <v>12</v>
-      </c>
-      <c r="E133" t="s">
-        <v>123</v>
-      </c>
-      <c r="M133" s="7"/>
-      <c r="N133" s="7"/>
-    </row>
-    <row r="134" spans="1:14" ht="51">
-      <c r="B134" s="1" t="s">
+      <c r="D139" t="s">
+        <v>12</v>
+      </c>
+      <c r="E139" t="s">
+        <v>123</v>
+      </c>
+      <c r="M139" s="7"/>
+      <c r="N139" s="7"/>
+    </row>
+    <row r="140" spans="1:14" ht="51">
+      <c r="B140" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="D134" t="s">
-        <v>12</v>
-      </c>
-      <c r="E134" t="s">
-        <v>123</v>
-      </c>
-      <c r="G134" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H134" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I134" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="M134" s="7"/>
-      <c r="N134" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14" ht="51">
-      <c r="B135" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D135" t="s">
-        <v>12</v>
-      </c>
-      <c r="E135" t="s">
-        <v>123</v>
-      </c>
-      <c r="G135" s="3"/>
-      <c r="H135" s="3"/>
-      <c r="I135" s="3"/>
-    </row>
-    <row r="136" spans="1:14" ht="34">
-      <c r="B136" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D136" t="s">
-        <v>12</v>
-      </c>
-      <c r="E136" t="s">
-        <v>123</v>
-      </c>
-      <c r="G136" s="3"/>
-      <c r="H136" s="3"/>
-      <c r="I136" s="3"/>
-    </row>
-    <row r="137" spans="1:14" ht="17">
-      <c r="B137" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D137" t="s">
-        <v>12</v>
-      </c>
-      <c r="E137" t="s">
-        <v>123</v>
-      </c>
-      <c r="G137" s="3"/>
-      <c r="H137" s="3"/>
-      <c r="I137" s="3"/>
-    </row>
-    <row r="138" spans="1:14" ht="34">
-      <c r="B138" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D138" t="s">
-        <v>12</v>
-      </c>
-      <c r="E138" t="s">
-        <v>123</v>
-      </c>
-      <c r="G138" s="3"/>
-      <c r="H138" s="3"/>
-      <c r="I138" s="3"/>
-    </row>
-    <row r="139" spans="1:14" ht="34">
-      <c r="B139" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D139" t="s">
-        <v>12</v>
-      </c>
-      <c r="E139" t="s">
-        <v>123</v>
-      </c>
-      <c r="G139" s="3"/>
-      <c r="H139" s="3"/>
-      <c r="I139" s="3"/>
-    </row>
-    <row r="140" spans="1:14" ht="17">
-      <c r="A140" t="s">
-        <v>22</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C140" t="s">
-        <v>100</v>
       </c>
       <c r="D140" t="s">
         <v>12</v>
@@ -4206,18 +4249,16 @@
         <v>-500</v>
       </c>
       <c r="I140" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14" ht="17">
-      <c r="A141" t="s">
-        <v>22</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="M140" s="7"/>
+      <c r="N140" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" ht="51">
       <c r="B141" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C141" t="s">
-        <v>19</v>
+        <v>176</v>
       </c>
       <c r="D141" t="s">
         <v>12</v>
@@ -4229,15 +4270,9 @@
       <c r="H141" s="3"/>
       <c r="I141" s="3"/>
     </row>
-    <row r="142" spans="1:14" ht="17">
-      <c r="A142" t="s">
-        <v>24</v>
-      </c>
+    <row r="142" spans="1:14" ht="34">
       <c r="B142" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C142" t="s">
-        <v>92</v>
+        <v>177</v>
       </c>
       <c r="D142" t="s">
         <v>12</v>
@@ -4245,63 +4280,67 @@
       <c r="E142" t="s">
         <v>123</v>
       </c>
-      <c r="G142" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="G142" s="3"/>
       <c r="H142" s="3"/>
       <c r="I142" s="3"/>
     </row>
-    <row r="143" spans="1:14" ht="34">
+    <row r="143" spans="1:14" ht="17">
       <c r="B143" s="1" t="s">
-        <v>228</v>
+        <v>178</v>
       </c>
       <c r="D143" t="s">
         <v>12</v>
       </c>
       <c r="E143" t="s">
-        <v>87</v>
-      </c>
-      <c r="F143" t="s">
-        <v>128</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G143" s="3"/>
+      <c r="H143" s="3"/>
+      <c r="I143" s="3"/>
     </row>
     <row r="144" spans="1:14" ht="34">
       <c r="B144" s="1" t="s">
-        <v>179</v>
+        <v>225</v>
       </c>
       <c r="D144" t="s">
         <v>12</v>
       </c>
       <c r="E144" t="s">
-        <v>127</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G144" s="3"/>
+      <c r="H144" s="3"/>
+      <c r="I144" s="3"/>
     </row>
     <row r="145" spans="1:9" ht="34">
       <c r="B145" s="1" t="s">
-        <v>180</v>
+        <v>226</v>
       </c>
       <c r="D145" t="s">
         <v>12</v>
       </c>
       <c r="E145" t="s">
-        <v>127</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G145" s="3"/>
+      <c r="H145" s="3"/>
+      <c r="I145" s="3"/>
     </row>
     <row r="146" spans="1:9" ht="17">
       <c r="A146" t="s">
         <v>22</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>229</v>
+        <v>144</v>
       </c>
       <c r="C146" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="D146" t="s">
         <v>12</v>
       </c>
       <c r="E146" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G146" s="3" t="s">
         <v>18</v>
@@ -4313,69 +4352,65 @@
         <v>19</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="34">
+    <row r="147" spans="1:9" ht="17">
       <c r="A147" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C147" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="D147" t="s">
         <v>12</v>
       </c>
       <c r="E147" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G147" s="3"/>
       <c r="H147" s="3"/>
       <c r="I147" s="3"/>
     </row>
-    <row r="148" spans="1:9" ht="51">
+    <row r="148" spans="1:9" ht="17">
+      <c r="A148" t="s">
+        <v>24</v>
+      </c>
       <c r="B148" s="1" t="s">
-        <v>181</v>
+        <v>145</v>
+      </c>
+      <c r="C148" t="s">
+        <v>92</v>
       </c>
       <c r="D148" t="s">
         <v>12</v>
       </c>
       <c r="E148" t="s">
-        <v>127</v>
-      </c>
-      <c r="G148" s="3"/>
+        <v>123</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="H148" s="3"/>
       <c r="I148" s="3"/>
     </row>
-    <row r="149" spans="1:9" ht="17">
-      <c r="A149" t="s">
-        <v>22</v>
-      </c>
+    <row r="149" spans="1:9" ht="34">
       <c r="B149" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C149" t="s">
-        <v>19</v>
+        <v>228</v>
       </c>
       <c r="D149" t="s">
         <v>12</v>
       </c>
       <c r="E149" t="s">
-        <v>127</v>
-      </c>
-      <c r="G149" s="3"/>
-      <c r="H149" s="3"/>
-      <c r="I149" s="3"/>
+        <v>87</v>
+      </c>
+      <c r="F149" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="150" spans="1:9" ht="34">
-      <c r="A150" t="s">
-        <v>22</v>
-      </c>
       <c r="B150" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C150" t="s">
-        <v>100</v>
+        <v>179</v>
       </c>
       <c r="D150" t="s">
         <v>12</v>
@@ -4383,19 +4418,10 @@
       <c r="E150" t="s">
         <v>127</v>
       </c>
-      <c r="G150" s="3"/>
-      <c r="H150" s="3"/>
-      <c r="I150" s="3"/>
     </row>
     <row r="151" spans="1:9" ht="34">
-      <c r="A151" t="s">
-        <v>22</v>
-      </c>
       <c r="B151" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C151" t="s">
-        <v>19</v>
+        <v>180</v>
       </c>
       <c r="D151" t="s">
         <v>12</v>
@@ -4403,16 +4429,13 @@
       <c r="E151" t="s">
         <v>127</v>
       </c>
-      <c r="G151" s="3"/>
-      <c r="H151" s="3"/>
-      <c r="I151" s="3"/>
     </row>
     <row r="152" spans="1:9" ht="17">
       <c r="A152" t="s">
         <v>22</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>192</v>
+        <v>229</v>
       </c>
       <c r="C152" t="s">
         <v>23</v>
@@ -4423,19 +4446,25 @@
       <c r="E152" t="s">
         <v>127</v>
       </c>
-      <c r="G152" s="3"/>
-      <c r="H152" s="3"/>
-      <c r="I152" s="3"/>
+      <c r="G152" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H152" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I152" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="153" spans="1:9" ht="34">
       <c r="A153" t="s">
-        <v>22</v>
-      </c>
-      <c r="B153" s="6" t="s">
-        <v>231</v>
+        <v>122</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>230</v>
       </c>
       <c r="C153" t="s">
-        <v>23</v>
+        <v>126</v>
       </c>
       <c r="D153" t="s">
         <v>12</v>
@@ -4448,14 +4477,8 @@
       <c r="I153" s="3"/>
     </row>
     <row r="154" spans="1:9" ht="51">
-      <c r="A154" t="s">
-        <v>22</v>
-      </c>
-      <c r="B154" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="C154" t="s">
-        <v>100</v>
+      <c r="B154" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="D154" t="s">
         <v>12</v>
@@ -4467,15 +4490,15 @@
       <c r="H154" s="3"/>
       <c r="I154" s="3"/>
     </row>
-    <row r="155" spans="1:9" ht="34">
+    <row r="155" spans="1:9" ht="17">
       <c r="A155" t="s">
         <v>22</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>147</v>
+        <v>190</v>
       </c>
       <c r="C155" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="D155" t="s">
         <v>12</v>
@@ -4492,10 +4515,10 @@
         <v>22</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
       <c r="C156" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="D156" t="s">
         <v>12</v>
@@ -4512,7 +4535,7 @@
         <v>22</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C157" t="s">
         <v>19</v>
@@ -4527,15 +4550,15 @@
       <c r="H157" s="3"/>
       <c r="I157" s="3"/>
     </row>
-    <row r="158" spans="1:9" ht="51">
+    <row r="158" spans="1:9" ht="17">
       <c r="A158" t="s">
         <v>22</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="C158" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D158" t="s">
         <v>12</v>
@@ -4543,9 +4566,7 @@
       <c r="E158" t="s">
         <v>127</v>
       </c>
-      <c r="G158" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="G158" s="3"/>
       <c r="H158" s="3"/>
       <c r="I158" s="3"/>
     </row>
@@ -4553,39 +4574,51 @@
       <c r="A159" t="s">
         <v>22</v>
       </c>
-      <c r="B159" s="1" t="s">
-        <v>233</v>
+      <c r="B159" s="6" t="s">
+        <v>231</v>
       </c>
       <c r="C159" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="D159" t="s">
         <v>12</v>
       </c>
       <c r="E159" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" ht="34">
+        <v>127</v>
+      </c>
+      <c r="G159" s="3"/>
+      <c r="H159" s="3"/>
+      <c r="I159" s="3"/>
+    </row>
+    <row r="160" spans="1:9" ht="51">
       <c r="A160" t="s">
         <v>22</v>
       </c>
-      <c r="B160" s="1" t="s">
-        <v>234</v>
+      <c r="B160" s="6" t="s">
+        <v>232</v>
       </c>
       <c r="C160" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D160" t="s">
         <v>12</v>
       </c>
       <c r="E160" t="s">
-        <v>241</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G160" s="3"/>
+      <c r="H160" s="3"/>
+      <c r="I160" s="3"/>
     </row>
     <row r="161" spans="1:9" ht="34">
+      <c r="A161" t="s">
+        <v>22</v>
+      </c>
       <c r="B161" s="1" t="s">
-        <v>182</v>
+        <v>147</v>
+      </c>
+      <c r="C161" t="s">
+        <v>100</v>
       </c>
       <c r="D161" t="s">
         <v>12</v>
@@ -4593,16 +4626,19 @@
       <c r="E161" t="s">
         <v>127</v>
       </c>
+      <c r="G161" s="3"/>
+      <c r="H161" s="3"/>
+      <c r="I161" s="3"/>
     </row>
     <row r="162" spans="1:9" ht="34">
       <c r="A162" t="s">
         <v>22</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="C162" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="D162" t="s">
         <v>12</v>
@@ -4610,25 +4646,19 @@
       <c r="E162" t="s">
         <v>127</v>
       </c>
-      <c r="G162" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H162" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I162" s="3" t="s">
-        <v>131</v>
-      </c>
+      <c r="G162" s="3"/>
+      <c r="H162" s="3"/>
+      <c r="I162" s="3"/>
     </row>
     <row r="163" spans="1:9" ht="34">
       <c r="A163" t="s">
         <v>22</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
       <c r="C163" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="D163" t="s">
         <v>12</v>
@@ -4640,15 +4670,15 @@
       <c r="H163" s="3"/>
       <c r="I163" s="3"/>
     </row>
-    <row r="164" spans="1:9" ht="34">
+    <row r="164" spans="1:9" ht="51">
       <c r="A164" t="s">
         <v>22</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>235</v>
+        <v>150</v>
       </c>
       <c r="C164" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="D164" t="s">
         <v>12</v>
@@ -4656,7 +4686,9 @@
       <c r="E164" t="s">
         <v>127</v>
       </c>
-      <c r="G164" s="3"/>
+      <c r="G164" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="H164" s="3"/>
       <c r="I164" s="3"/>
     </row>
@@ -4665,7 +4697,7 @@
         <v>22</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>195</v>
+        <v>233</v>
       </c>
       <c r="C165" t="s">
         <v>98</v>
@@ -4674,35 +4706,29 @@
         <v>12</v>
       </c>
       <c r="E165" t="s">
-        <v>127</v>
-      </c>
-      <c r="G165" s="3"/>
-      <c r="H165" s="3"/>
-      <c r="I165" s="3"/>
-    </row>
-    <row r="166" spans="1:9" ht="51">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="34">
+      <c r="A166" t="s">
+        <v>22</v>
+      </c>
       <c r="B166" s="1" t="s">
-        <v>183</v>
+        <v>234</v>
+      </c>
+      <c r="C166" t="s">
+        <v>98</v>
       </c>
       <c r="D166" t="s">
         <v>12</v>
       </c>
       <c r="E166" t="s">
-        <v>127</v>
-      </c>
-      <c r="G166" s="3"/>
-      <c r="H166" s="3"/>
-      <c r="I166" s="3"/>
+        <v>241</v>
+      </c>
     </row>
     <row r="167" spans="1:9" ht="34">
-      <c r="A167" t="s">
-        <v>22</v>
-      </c>
       <c r="B167" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C167" t="s">
-        <v>19</v>
+        <v>182</v>
       </c>
       <c r="D167" t="s">
         <v>12</v>
@@ -4710,19 +4736,16 @@
       <c r="E167" t="s">
         <v>127</v>
       </c>
-      <c r="G167" s="3"/>
-      <c r="H167" s="3"/>
-      <c r="I167" s="3"/>
-    </row>
-    <row r="168" spans="1:9" ht="17">
+    </row>
+    <row r="168" spans="1:9" ht="34">
       <c r="A168" t="s">
         <v>22</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>152</v>
+        <v>193</v>
       </c>
       <c r="C168" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D168" t="s">
         <v>12</v>
@@ -4730,19 +4753,25 @@
       <c r="E168" t="s">
         <v>127</v>
       </c>
-      <c r="G168" s="3"/>
-      <c r="H168" s="3"/>
-      <c r="I168" s="3"/>
-    </row>
-    <row r="169" spans="1:9" ht="17">
+      <c r="G168" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H168" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I168" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" ht="34">
       <c r="A169" t="s">
         <v>22</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="C169" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="D169" t="s">
         <v>12</v>
@@ -4759,10 +4788,10 @@
         <v>22</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>153</v>
+        <v>235</v>
       </c>
       <c r="C170" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D170" t="s">
         <v>12</v>
@@ -4770,23 +4799,137 @@
       <c r="E170" t="s">
         <v>127</v>
       </c>
-      <c r="G170" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="G170" s="3"/>
       <c r="H170" s="3"/>
       <c r="I170" s="3"/>
     </row>
-    <row r="171" spans="1:9" ht="17">
+    <row r="171" spans="1:9" ht="34">
       <c r="A171" t="s">
+        <v>22</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C171" t="s">
+        <v>98</v>
+      </c>
+      <c r="D171" t="s">
+        <v>12</v>
+      </c>
+      <c r="E171" t="s">
+        <v>127</v>
+      </c>
+      <c r="G171" s="3"/>
+      <c r="H171" s="3"/>
+      <c r="I171" s="3"/>
+    </row>
+    <row r="172" spans="1:9" ht="51">
+      <c r="B172" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D172" t="s">
+        <v>12</v>
+      </c>
+      <c r="E172" t="s">
+        <v>127</v>
+      </c>
+      <c r="G172" s="3"/>
+      <c r="H172" s="3"/>
+      <c r="I172" s="3"/>
+    </row>
+    <row r="173" spans="1:9" ht="34">
+      <c r="A173" t="s">
+        <v>22</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C173" t="s">
+        <v>19</v>
+      </c>
+      <c r="D173" t="s">
+        <v>12</v>
+      </c>
+      <c r="E173" t="s">
+        <v>127</v>
+      </c>
+      <c r="G173" s="3"/>
+      <c r="H173" s="3"/>
+      <c r="I173" s="3"/>
+    </row>
+    <row r="174" spans="1:9" ht="17">
+      <c r="A174" t="s">
+        <v>22</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C174" t="s">
+        <v>100</v>
+      </c>
+      <c r="D174" t="s">
+        <v>12</v>
+      </c>
+      <c r="E174" t="s">
+        <v>127</v>
+      </c>
+      <c r="G174" s="3"/>
+      <c r="H174" s="3"/>
+      <c r="I174" s="3"/>
+    </row>
+    <row r="175" spans="1:9" ht="17">
+      <c r="A175" t="s">
+        <v>22</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C175" t="s">
+        <v>19</v>
+      </c>
+      <c r="D175" t="s">
+        <v>12</v>
+      </c>
+      <c r="E175" t="s">
+        <v>127</v>
+      </c>
+      <c r="G175" s="3"/>
+      <c r="H175" s="3"/>
+      <c r="I175" s="3"/>
+    </row>
+    <row r="176" spans="1:9" ht="34">
+      <c r="A176" t="s">
+        <v>22</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C176" t="s">
+        <v>100</v>
+      </c>
+      <c r="D176" t="s">
+        <v>12</v>
+      </c>
+      <c r="E176" t="s">
+        <v>127</v>
+      </c>
+      <c r="G176" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H176" s="3"/>
+      <c r="I176" s="3"/>
+    </row>
+    <row r="177" spans="1:2" ht="17">
+      <c r="A177" t="s">
         <v>154</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="B177" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="176" spans="1:9">
-      <c r="A176" s="4"/>
-      <c r="B176" s="5"/>
+    <row r="182" spans="1:2">
+      <c r="A182" s="4"/>
+      <c r="B182" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
